--- a/Consumer/Nike.xlsx
+++ b/Consumer/Nike.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94668DA-F0AB-B740-BD07-53676A77891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5699F90-BEF7-4D46-81D4-27D6E372EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -374,9 +397,6 @@
   </si>
   <si>
     <t>WACC</t>
-  </si>
-  <si>
-    <t>Nike</t>
   </si>
   <si>
     <t>3yr Rev Growth</t>
@@ -878,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -963,10 +971,6 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -990,12 +994,6 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1007,10 +1005,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1020,6 +1014,26 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2386,6 +2400,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yjxm&amp;q=XNYS%3aNKE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1yjxm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>131.31</v>
+    <v>82.22</v>
+    <v>1.1100000000000001</v>
+    <v>-0.49</v>
+    <v>-4.5050000000000003E-3</v>
+    <v>0.5</v>
+    <v>4.6169999999999996E-3</v>
+    <v>USD</v>
+    <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. It also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
+    <v>79100</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
+    <v>109.1</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45070.999761943749</v>
+    <v>0</v>
+    <v>107.2016</v>
+    <v>167193600000</v>
+    <v>NIKE, INC.</v>
+    <v>NIKE, INC.</v>
+    <v>109</v>
+    <v>31.201599999999999</v>
+    <v>108.78</v>
+    <v>108.29</v>
+    <v>108.79</v>
+    <v>1536989000</v>
+    <v>NKE</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>8503192</v>
+    <v>5790913</v>
+    <v>1969</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2686,10 +3140,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM128" sqref="AM128"/>
+      <selection pane="bottomRight" activeCell="AN86" sqref="AN86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2700,8 +3154,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>109</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1986</v>
@@ -3088,16 +3542,16 @@
         <v>69000000000</v>
       </c>
       <c r="AR3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AT3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3518,16 +3972,16 @@
         <v>21479000000</v>
       </c>
       <c r="AR6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AT6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4307,16 +4761,16 @@
         <v>14804000000</v>
       </c>
       <c r="AR12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AT12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4720,16 +5174,16 @@
         <v>14804000000</v>
       </c>
       <c r="AR15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AT15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4853,15 +5307,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>4.1551122243630916</v>
+        <v>3.5793962748876043</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>32.101437644723781</v>
+        <v>27.65358914985114</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>43.811578329571105</v>
+        <v>37.741218961625279</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -5096,7 +5550,7 @@
         <v>840000000</v>
       </c>
       <c r="AR18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -12781,10 +13235,10 @@
       <c r="AL83" s="1">
         <v>-1676000000</v>
       </c>
-      <c r="AS83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT83" s="34"/>
+      <c r="AS83" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT83" s="63"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12901,10 +13355,10 @@
       <c r="AL84" s="1">
         <v>1365000000</v>
       </c>
-      <c r="AS84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT84" s="36"/>
+      <c r="AS84" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT84" s="65"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13022,7 +13476,7 @@
         <v>92</v>
       </c>
       <c r="AS85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AT85" s="24">
         <f>AL17</f>
@@ -13145,7 +13599,7 @@
         <v>-26000000</v>
       </c>
       <c r="AS86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AT86" s="24">
         <f>AL56</f>
@@ -13268,7 +13722,7 @@
         <v>5188000000</v>
       </c>
       <c r="AS87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT87" s="24">
         <f>AL61</f>
@@ -13390,10 +13844,10 @@
       <c r="AL88" s="1">
         <v>-758000000</v>
       </c>
-      <c r="AS88" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT88" s="38">
+      <c r="AS88" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT88" s="34">
         <f>AT85/(AT86+AT87)</f>
         <v>-1.623505187297062E-2</v>
       </c>
@@ -13796,10 +14250,10 @@
       <c r="AL91" s="1">
         <v>-12913000000</v>
       </c>
-      <c r="AS91" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT91" s="38">
+      <c r="AS91" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT91" s="34">
         <f>AT89/AT90</f>
         <v>9.0963764847391368E-2</v>
       </c>
@@ -13919,10 +14373,10 @@
       <c r="AL92" s="1">
         <v>12166000000</v>
       </c>
-      <c r="AS92" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT92" s="40">
+      <c r="AS92" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT92" s="36">
         <f>AT88*(1-AT91)</f>
         <v>-1.475825043211252E-2</v>
       </c>
@@ -14042,10 +14496,10 @@
       <c r="AL93" s="1">
         <v>-19000000</v>
       </c>
-      <c r="AS93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT93" s="36"/>
+      <c r="AS93" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT93" s="65"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14163,9 +14617,9 @@
         <v>-1524000000</v>
       </c>
       <c r="AS94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT94" s="41">
+        <v>135</v>
+      </c>
+      <c r="AT94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14284,10 +14738,11 @@
       <c r="AL95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT95" s="43">
+      <c r="AS95" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT95" s="58" cm="1">
+        <f t="array" ref="AT95">_FV(A1,"Beta")</f>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -14407,9 +14862,9 @@
         <v>92</v>
       </c>
       <c r="AS96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT96" s="41">
+        <v>137</v>
+      </c>
+      <c r="AT96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14528,10 +14983,10 @@
       <c r="AL97" s="1">
         <v>-4014000000</v>
       </c>
-      <c r="AS97" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT97" s="40">
+      <c r="AS97" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
         <v>8.8735500000000009E-2</v>
       </c>
@@ -14651,10 +15106,10 @@
       <c r="AL98" s="1">
         <v>-1837000000</v>
       </c>
-      <c r="AS98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT98" s="36"/>
+      <c r="AS98" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT98" s="65"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14772,7 +15227,7 @@
         <v>1015000000</v>
       </c>
       <c r="AS99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AT99" s="24">
         <f>AT86+AT87</f>
@@ -14894,12 +15349,12 @@
       <c r="AL100" s="10">
         <v>-4836000000</v>
       </c>
-      <c r="AS100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT100" s="38">
+      <c r="AS100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>6.1084901520999053E-2</v>
+        <v>7.0219985919299566E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15017,12 +15472,12 @@
       <c r="AL101" s="1">
         <v>-143000000</v>
       </c>
-      <c r="AS101" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT101" s="58">
-        <f>AN116*AL34</f>
-        <v>194085292000</v>
+      <c r="AS101" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT101" s="50" cm="1">
+        <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
+        <v>167193600000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15140,12 +15595,12 @@
       <c r="AL102" s="10">
         <v>-1315000000</v>
       </c>
-      <c r="AS102" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT102" s="38">
+      <c r="AS102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.9389150984790009</v>
+        <v>0.92978001408070043</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15263,12 +15718,12 @@
       <c r="AL103" s="1">
         <v>9889000000</v>
       </c>
-      <c r="AS103" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT103" s="44">
+      <c r="AS103" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>206712292000</v>
+        <v>179820600000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15386,10 +15841,10 @@
       <c r="AL104" s="11">
         <v>8574000000</v>
       </c>
-      <c r="AS104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT104" s="36"/>
+      <c r="AS104" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT104" s="65"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -15551,7 +16006,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>8.241359444681555E-2</v>
+        <v>8.1468170301921564E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15669,33 +16124,33 @@
       <c r="AL106" s="1">
         <v>4430000000</v>
       </c>
-      <c r="AM106" s="45">
+      <c r="AM106" s="39">
         <f>AL106*(1+$AT$106)</f>
         <v>4790338798.7808914</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="39">
         <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
         <v>5179987766.8409824</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="39">
         <f t="shared" si="9"/>
         <v>5601331010.5437346</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="39">
         <f t="shared" si="9"/>
         <v>6056946560.8628063</v>
       </c>
-      <c r="AQ106" s="45">
+      <c r="AQ106" s="39">
         <f t="shared" si="9"/>
         <v>6549622147.3236084</v>
       </c>
-      <c r="AR106" s="46" t="s">
+      <c r="AR106" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS106" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AS106" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT106" s="48">
+      <c r="AT106" s="42">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>8.134058663225549E-2</v>
       </c>
@@ -15739,150 +16194,151 @@
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
-      <c r="AM107" s="46"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="46"/>
-      <c r="AQ107" s="49">
+      <c r="AM107" s="40"/>
+      <c r="AN107" s="40"/>
+      <c r="AO107" s="40"/>
+      <c r="AP107" s="40"/>
+      <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>116929845025.21519</v>
-      </c>
-      <c r="AR107" s="50" t="s">
+        <v>118887554973.21733</v>
+      </c>
+      <c r="AR107" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS107" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="AS107" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT107" s="52">
+      <c r="AT107" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="49">
+      <c r="AM108" s="43">
         <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
         <v>4790338798.7808914</v>
       </c>
-      <c r="AN108" s="49">
+      <c r="AN108" s="43">
         <f t="shared" si="10"/>
         <v>5179987766.8409824</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="43">
         <f t="shared" si="10"/>
         <v>5601331010.5437346</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="43">
         <f>AP107+AP106</f>
         <v>6056946560.8628063</v>
       </c>
-      <c r="AQ108" s="49">
+      <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>123479467172.5388</v>
-      </c>
-      <c r="AR108" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS108" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT108" s="54">
+        <v>125437177120.54094</v>
+      </c>
+      <c r="AR108" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS108" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT108" s="48">
         <f>AT105</f>
-        <v>8.241359444681555E-2</v>
+        <v>8.1468170301921564E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN109" s="56"/>
+      <c r="AM109" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN109" s="61"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN110" s="58">
+      <c r="AM110" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>100781396836.57094</v>
+        <v>102507298379.9769</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN111" s="58">
+      <c r="AM111" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN111" s="50">
         <f>AL40</f>
         <v>12997000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN112" s="58">
+      <c r="AM112" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN112" s="50">
         <f>AT99</f>
         <v>12627000000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN113" s="58">
+      <c r="AM113" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>101151396836.57094</v>
+        <v>102877298379.9769</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN114" s="59">
+      <c r="AM114" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN114" s="51">
         <f>AL34*(1+(5*AR16))</f>
         <v>1532705552.0348985</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN115" s="61">
+      <c r="AM115" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>65.995322260219623</v>
+        <v>67.121371253201062</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN116" s="63">
-        <v>120.49</v>
+      <c r="AM116" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN116" s="59" cm="1">
+        <f t="array" ref="AN116">_FV(A1,"Price")</f>
+        <v>108.29</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN117" s="65">
+      <c r="AM117" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>-0.45227552278015082</v>
+        <v>-0.38017017958074562</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN118" s="66" t="str">
+      <c r="AM118" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN118" s="56" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AM109:AN109"/>
     <mergeCell ref="AS83:AT83"/>
     <mergeCell ref="AS84:AT84"/>
     <mergeCell ref="AS93:AT93"/>
     <mergeCell ref="AS98:AT98"/>
     <mergeCell ref="AS104:AT104"/>
-    <mergeCell ref="AM109:AN109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NKE" display="ROIC.AI | NKE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Nike.xlsx
+++ b/Consumer/Nike.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5699F90-BEF7-4D46-81D4-27D6E372EB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06404CE-D876-624F-A981-3C3186523063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2522,11 +2522,9 @@
     <v>Powered by Refinitiv</v>
     <v>131.31</v>
     <v>82.22</v>
-    <v>1.1100000000000001</v>
-    <v>-0.49</v>
-    <v>-4.5050000000000003E-3</v>
-    <v>0.5</v>
-    <v>4.6169999999999996E-3</v>
+    <v>1.1152</v>
+    <v>-0.7006</v>
+    <v>-6.3429999999999997E-3</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. It also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>79100</v>
@@ -2534,25 +2532,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>109.1</v>
+    <v>110.28</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45070.999761943749</v>
+    <v>45100.782517603904</v>
     <v>0</v>
-    <v>107.2016</v>
-    <v>167193600000</v>
+    <v>107.3</v>
+    <v>168698990446</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>109</v>
-    <v>31.201599999999999</v>
-    <v>108.78</v>
-    <v>108.29</v>
-    <v>108.79</v>
+    <v>107.74</v>
+    <v>31.826899999999998</v>
+    <v>110.46</v>
+    <v>109.7594</v>
     <v>1536989000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>8503192</v>
-    <v>5790913</v>
+    <v>4520596</v>
+    <v>10132323</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2584,8 +2581,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2606,7 +2601,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2623,7 +2617,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2634,16 +2628,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2709,19 +2700,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2766,9 +2751,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2776,9 +2758,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3140,10 +3119,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN86" sqref="AN86"/>
+      <selection pane="bottomRight" activeCell="AM123" sqref="AM123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5307,15 +5286,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>3.5793962748876043</v>
+        <v>3.6116247151787624</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>27.65358914985114</v>
+        <v>27.90257863810784</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>37.741218961625279</v>
+        <v>38.081036218058692</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14743,7 +14722,7 @@
       </c>
       <c r="AT95" s="58" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>1.1100000000000001</v>
+        <v>1.1152</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14988,7 +14967,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.8735500000000009E-2</v>
+        <v>8.8959360000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15354,7 +15333,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>7.0219985919299566E-2</v>
+        <v>6.9637011048123296E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15477,7 +15456,7 @@
       </c>
       <c r="AT101" s="50" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>167193600000</v>
+        <v>168698990446</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15600,7 +15579,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.92978001408070043</v>
+        <v>0.93036298895187675</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15723,7 +15702,7 @@
       </c>
       <c r="AT103" s="38">
         <f>AT99+AT101</f>
-        <v>179820600000</v>
+        <v>181325990446</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16006,7 +15985,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>8.1468170301921564E-2</v>
+        <v>8.1736775616454038E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16200,7 +16179,7 @@
       <c r="AP107" s="40"/>
       <c r="AQ107" s="43">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>118887554973.21733</v>
+        <v>118324713169.98456</v>
       </c>
       <c r="AR107" s="44" t="s">
         <v>148</v>
@@ -16231,7 +16210,7 @@
       </c>
       <c r="AQ108" s="43">
         <f>AQ107+AQ106</f>
-        <v>125437177120.54094</v>
+        <v>124874335317.30817</v>
       </c>
       <c r="AR108" s="44" t="s">
         <v>144</v>
@@ -16241,7 +16220,7 @@
       </c>
       <c r="AT108" s="48">
         <f>AT105</f>
-        <v>8.1468170301921564E-2</v>
+        <v>8.1736775616454038E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16256,7 +16235,7 @@
       </c>
       <c r="AN110" s="50">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>102507298379.9769</v>
+        <v>102011087872.28464</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16283,7 +16262,7 @@
       </c>
       <c r="AN113" s="50">
         <f>AN110+AN111-AN112</f>
-        <v>102877298379.9769</v>
+        <v>102381087872.28464</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16301,7 +16280,7 @@
       </c>
       <c r="AN115" s="53">
         <f>AN113/AN114</f>
-        <v>67.121371253201062</v>
+        <v>66.797623154922519</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16310,7 +16289,7 @@
       </c>
       <c r="AN116" s="59" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>108.29</v>
+        <v>109.7594</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16319,7 +16298,7 @@
       </c>
       <c r="AN117" s="55">
         <f>AN115/AN116-1</f>
-        <v>-0.38017017958074562</v>
+        <v>-0.39141774504122184</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Nike.xlsx
+++ b/Consumer/Nike.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5314F7-B99A-5141-AB5B-84355BEC96F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176EF46-2578-D544-86E3-A3B3CCF4F0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="252">
   <si>
     <t>2011 Y</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -939,11 +945,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -991,6 +992,17 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1077,7 +1089,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1122,65 +1134,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1189,23 +1144,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1215,7 +1359,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1223,7 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1290,245 +1456,265 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1563,13 +1749,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Quality"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1586,7 +1770,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.4839999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1599,8 +1783,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1728,11 +1910,11 @@
     <v>Powered by Refinitiv</v>
     <v>131.31</v>
     <v>88.66</v>
-    <v>1.0854999999999999</v>
-    <v>-3.52</v>
-    <v>-3.3996999999999999E-2</v>
-    <v>0.3</v>
-    <v>2.9989999999999999E-3</v>
+    <v>1.0687</v>
+    <v>0.32</v>
+    <v>2.9729999999999999E-3</v>
+    <v>-0.01</v>
+    <v>-9.2629999999999999E-5</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -1740,25 +1922,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>102.63</v>
+    <v>108.22</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45225.999657106251</v>
+    <v>45258.041324166406</v>
     <v>0</v>
-    <v>99.95</v>
-    <v>152221438200</v>
+    <v>106.9</v>
+    <v>164305403600</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>102.18</v>
-    <v>31.9419</v>
-    <v>103.54</v>
-    <v>100.02</v>
-    <v>100.32</v>
+    <v>107.66</v>
+    <v>33.305500000000002</v>
+    <v>107.64</v>
+    <v>107.96</v>
+    <v>107.95</v>
     <v>1521910000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>11222560</v>
-    <v>9967074</v>
+    <v>5785038</v>
+    <v>7546847</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2370,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
     </sheetView>
   </sheetViews>
@@ -15697,7 +15879,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15705,265 +15887,270 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="e" vm="1">
+    <row r="1" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="120" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-    </row>
-    <row r="2" spans="1:16" s="116" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="115"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+    </row>
+    <row r="2" spans="1:16" s="121" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" cm="1">
+      <c r="A3" s="49" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>152221438200</v>
-      </c>
-      <c r="B3" s="41" t="s">
+        <v>164305403600</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="51">
         <f>Financials!O8*0.01</f>
         <v>0.43520000000000003</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="51">
         <f>SUM(C11:E11)/3</f>
         <v>0.11200547290674767</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="53">
         <f>AVERAGE(Financials!K143:O143)</f>
         <v>1.2990860036069852E-2</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="45">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>146637472640.60614</v>
-      </c>
-      <c r="J3" s="41" t="s">
+      <c r="I3" s="54">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>146326625807.93481</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="117" t="s">
+      <c r="K3" s="56">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>9.3240999165775454E-3</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="48"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="58">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-3387000000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="42">
         <f>Financials!O17*0.01</f>
         <v>0.11320000000000001</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="42">
         <f>SUM(C13:E13)/3</f>
         <v>0.38329482232629197</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="61">
         <f>A5*(1+(5*G3))</f>
         <v>1620764598.9874752</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="55">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>124661499801.60681</v>
-      </c>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="41">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>124387803880.95398</v>
+      </c>
+      <c r="J4" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="56">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>1.0064285412854548E-2</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="119" t="s">
+      <c r="K4" s="62" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>2.9729999999999999E-3</v>
+      </c>
+      <c r="L4" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="40"/>
+      <c r="N4" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="48"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
+      <c r="A5" s="58" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>1521910000</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="58">
-        <f>Financials!O34*0.01</f>
-        <v>9.820000000000001E-2</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="42">
+        <f>F14</f>
+        <v>0.10680323247509867</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="51">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="42">
+        <f>SUM(C16:E16)/3</f>
         <v>1.0771393869814176</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="61">
         <f>Financials!O56</f>
         <v>8790000000</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="41">
         <f>I4+G5-G6</f>
-        <v>121274499801.60681</v>
-      </c>
-      <c r="J5" s="54" t="s">
+        <v>121000803880.95398</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="59" cm="1">
+      <c r="K5" s="65" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>100.02</v>
-      </c>
-      <c r="L5" s="57" t="s">
+        <v>107.96</v>
+      </c>
+      <c r="L5" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="60" t="s">
+      <c r="M5" s="40"/>
+      <c r="N5" s="105" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="106">
         <f>Financials!O20</f>
         <v>-16000000</v>
       </c>
-      <c r="P5" s="48"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="67">
         <f>O20/F10</f>
-        <v>2.8607674910731067</v>
-      </c>
-      <c r="B6" s="50" t="s">
+        <v>3.0878670099605339</v>
+      </c>
+      <c r="B6" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="51">
-        <f>Financials!O190</f>
-        <v>9.2591171151566967E-2</v>
-      </c>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="42">
+        <f>F17</f>
+        <v>9.3121593685397477E-2</v>
+      </c>
+      <c r="D6" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="42">
         <f>Financials!O33/Financials!O126</f>
         <v>0.36160618423878033</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="61">
         <f>Financials!O96+Financials!O105</f>
         <v>12177000000</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="62">
         <f>N25</f>
-        <v>8.0514800230850114E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+        <v>8.0632732286775408E-2</v>
+      </c>
+      <c r="J6" s="60" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="65">
+      <c r="K6" s="68">
         <f>I5/G4</f>
-        <v>74.825486611300292</v>
-      </c>
-      <c r="L6" s="66" t="s">
+        <v>74.656618213740387</v>
+      </c>
+      <c r="L6" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="67" t="s">
+      <c r="M6" s="40"/>
+      <c r="N6" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="106">
         <f>Financials!O96</f>
         <v>441000000</v>
       </c>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
+      <c r="P6" s="40"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70">
         <f>O20/F12</f>
-        <v>26.785401759633995</v>
-      </c>
-      <c r="B7" s="70" t="s">
+        <v>28.911737392222417</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="71">
-        <f>F14/A3</f>
-        <v>3.2551262546145092E-2</v>
-      </c>
-      <c r="D7" s="72" t="s">
+      <c r="C7" s="72">
+        <f>F15/A3</f>
+        <v>3.0157255278486776E-2</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>228</v>
       </c>
       <c r="E7" s="73">
         <f>Financials!O36</f>
         <v>0.16704910509407986</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="71" t="s">
         <v>196</v>
       </c>
       <c r="G7" s="74">
@@ -15981,43 +16168,43 @@
       </c>
       <c r="K7" s="78">
         <f>K6/K5-1</f>
-        <v>-0.25189475493600988</v>
+        <v>-0.3084788976126307</v>
       </c>
       <c r="L7" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="67" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="106">
         <f>Financials!O105</f>
         <v>11736000000</v>
       </c>
-      <c r="P7" s="48"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="80"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="81" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="107" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="108">
         <f>O5/(O6+O7)</f>
         <v>-1.3139525334647285E-3</v>
       </c>
-      <c r="P8" s="48"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="83"/>
@@ -16030,35 +16217,35 @@
       <c r="D9" s="84">
         <v>2022</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="85">
         <v>2023</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="86">
         <v>2024</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="87">
         <v>2025</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="87">
         <v>2026</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="87">
         <v>2027</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="88">
         <v>2028</v>
       </c>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="67" t="s">
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="105" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="68">
+      <c r="O9" s="106">
         <f>Financials!O25</f>
         <v>969000000</v>
       </c>
-      <c r="P9" s="48"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="89" t="s">
@@ -16073,10 +16260,10 @@
       <c r="D10" s="90">
         <v>46710000000</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="91">
         <v>51217000000</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="90">
         <v>53210000000</v>
       </c>
       <c r="G10" s="90">
@@ -16088,20 +16275,21 @@
       <c r="I10" s="90">
         <v>66148000000</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="91">
         <v>71024000000</v>
       </c>
       <c r="K10" s="92" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="L10" s="82"/>
+      <c r="N10" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="106">
         <f>Financials!O24</f>
         <v>6021000000</v>
       </c>
-      <c r="P10" s="48"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
@@ -16134,24 +16322,24 @@
         <f t="shared" si="0"/>
         <v>7.5454826279935716E-2</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="96">
         <f t="shared" si="0"/>
         <v>7.3713490959666172E-2</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="96">
         <f>SUM(F11:J11)/5</f>
         <v>6.7674784244571073E-2</v>
       </c>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="67" t="s">
+      <c r="L11" s="82"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="96">
+      <c r="O11" s="109">
         <f>O9/O10</f>
         <v>0.16093672147483806</v>
       </c>
-      <c r="P11" s="48"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
@@ -16169,7 +16357,7 @@
       <c r="E12" s="90">
         <v>5070000000</v>
       </c>
-      <c r="F12" s="91">
+      <c r="F12" s="97">
         <v>5683000000</v>
       </c>
       <c r="G12" s="90">
@@ -16181,22 +16369,22 @@
       <c r="I12" s="90">
         <v>8149000000</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="91">
         <v>9005000000</v>
       </c>
-      <c r="K12" s="92" t="s">
+      <c r="K12" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="97" t="s">
+      <c r="L12" s="82"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="98">
+      <c r="O12" s="109">
         <f>O8*(1-O11)</f>
         <v>-1.1024893205553578E-3</v>
       </c>
-      <c r="P12" s="48"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
@@ -16229,1203 +16417,1260 @@
         <f t="shared" si="1"/>
         <v>0.10062128579146412</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="96">
         <f t="shared" si="1"/>
         <v>0.10504356362743894</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="96">
         <f>SUM(F13:J13)/5</f>
         <v>0.12188337824690069</v>
       </c>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="119" t="s">
+      <c r="L13" s="82"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="124" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="120"/>
-      <c r="P13" s="48"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="46">
+        <f>B12/B10</f>
+        <v>6.7882255434056085E-2</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.12858682473393507</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.12943695140226932</v>
+      </c>
+      <c r="E14" s="46">
+        <f t="shared" si="2"/>
+        <v>9.8990569537458259E-2</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.10680323247509867</v>
+      </c>
+      <c r="G14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.11270477518299059</v>
+      </c>
+      <c r="H14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.12037654250735688</v>
+      </c>
+      <c r="I14" s="46">
+        <f t="shared" si="2"/>
+        <v>0.12319344500211647</v>
+      </c>
+      <c r="J14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.12678812795674702</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="109">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.4839999999999998E-2</v>
+      </c>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="89" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B15" s="90">
         <v>1320728091</v>
       </c>
-      <c r="C14" s="90">
+      <c r="C15" s="90">
         <v>5736737427</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D15" s="90">
         <v>4243647572</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E15" s="90">
         <v>4872000000</v>
       </c>
-      <c r="F14" s="91">
+      <c r="F15" s="97">
         <v>4955000000</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G15" s="90">
         <v>5563000000</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H15" s="90">
         <v>6478000000</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I15" s="90">
         <v>7118000000</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J15" s="91">
         <v>7942000000</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K15" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="96">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="82"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="105" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="110" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>1.0687</v>
+      </c>
+      <c r="P15" s="40"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="99"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="94">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>3.3436173320553682</v>
       </c>
-      <c r="D15" s="94">
-        <f t="shared" si="2"/>
+      <c r="D16" s="94">
+        <f t="shared" si="3"/>
         <v>-0.26026811824657703</v>
       </c>
-      <c r="E15" s="94">
-        <f t="shared" si="2"/>
+      <c r="E16" s="94">
+        <f t="shared" si="3"/>
         <v>0.14806894713546215</v>
       </c>
-      <c r="F15" s="95">
-        <f t="shared" si="2"/>
+      <c r="F16" s="95">
+        <f t="shared" si="3"/>
         <v>1.7036124794745477E-2</v>
       </c>
-      <c r="G15" s="94">
-        <f t="shared" si="2"/>
+      <c r="G16" s="94">
+        <f t="shared" si="3"/>
         <v>0.12270433905146327</v>
       </c>
-      <c r="H15" s="94">
-        <f t="shared" si="2"/>
+      <c r="H16" s="94">
+        <f t="shared" si="3"/>
         <v>0.16447959733956496</v>
       </c>
-      <c r="I15" s="94">
-        <f t="shared" si="2"/>
+      <c r="I16" s="94">
+        <f t="shared" si="3"/>
         <v>9.8795924668107382E-2</v>
       </c>
-      <c r="J15" s="94">
-        <f t="shared" si="2"/>
+      <c r="J16" s="96">
+        <f t="shared" si="3"/>
         <v>0.11576285473447601</v>
       </c>
-      <c r="K15" s="95">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="96">
+        <f>SUM(F16:J16)/5</f>
         <v>0.10375576811767143</v>
       </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="100" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0854999999999999</v>
-      </c>
-      <c r="P15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="89" t="s">
+      <c r="L16" s="82"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="109">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="40"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="46">
+        <f>B15/B10</f>
+        <v>3.5310752907520788E-2</v>
+      </c>
+      <c r="C17" s="46">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.12880545662131213</v>
+      </c>
+      <c r="D17" s="46">
+        <f t="shared" si="4"/>
+        <v>9.0850943523870686E-2</v>
+      </c>
+      <c r="E17" s="48">
+        <f t="shared" si="4"/>
+        <v>9.5124665638362263E-2</v>
+      </c>
+      <c r="F17" s="46">
+        <f t="shared" si="4"/>
+        <v>9.3121593685397477E-2</v>
+      </c>
+      <c r="G17" s="46">
+        <f t="shared" si="4"/>
+        <v>9.6950156849076333E-2</v>
+      </c>
+      <c r="H17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.10532134553790626</v>
+      </c>
+      <c r="I17" s="46">
+        <f t="shared" si="4"/>
+        <v>0.10760718389066941</v>
+      </c>
+      <c r="J17" s="48">
+        <f t="shared" si="4"/>
+        <v>0.11182135616129758</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="111" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="112">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>8.6690292000000002E-2</v>
+      </c>
+      <c r="P17" s="40"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B18" s="101">
         <v>0.11088039867109635</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C18" s="101">
         <v>0.20339132134480062</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D18" s="101">
         <v>0.17938404758492188</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E18" s="101">
         <v>0.16965924736117485</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="96">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="48"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="88"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="104" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="105">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.7043800000000005E-2</v>
-      </c>
-      <c r="P17" s="48"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="119" t="s">
+      <c r="F18" s="102"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="124" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="120"/>
-      <c r="P18" s="48"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Textiles &amp; Apparel</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="121" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1969</v>
-      </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="67" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="105" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="113">
         <f>O6+O7</f>
         <v>12177000000</v>
       </c>
-      <c r="P19" s="48"/>
+      <c r="P19" s="40"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="113" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>164305403600</v>
+      </c>
+      <c r="P20" s="40"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="126" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Textiles &amp; Apparel</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="127" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1969</v>
+      </c>
+      <c r="D21" s="127"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="105" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="113">
+        <f>O19+O20</f>
+        <v>176482403600</v>
+      </c>
+      <c r="P21" s="40"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="126" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="107" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>152221438200</v>
-      </c>
-      <c r="P20" s="48"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="107">
-        <f>O19+O20</f>
-        <v>164398438200</v>
-      </c>
-      <c r="P21" s="48"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="81" t="s">
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="108">
+      <c r="O22" s="114">
         <f>(O19/O21)</f>
-        <v>7.4070046731137373E-2</v>
-      </c>
-      <c r="P22" s="48"/>
+        <v>6.8998380300844903E-2</v>
+      </c>
+      <c r="P22" s="40"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="104" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="109">
+      <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.92592995326886263</v>
-      </c>
-      <c r="P23" s="48"/>
+        <v>0.93100161969915507</v>
+      </c>
+      <c r="P23" s="40"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="111" t="s">
+      <c r="A24" s="126"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="116" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="112"/>
-      <c r="P24" s="48"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="40"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="113">
+      <c r="A25" s="126"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.0514800230850114E-2</v>
-      </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="48"/>
+        <v>8.0632732286775408E-2</v>
+      </c>
+      <c r="O25" s="119"/>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="110"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="110"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="48"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
+      <c r="A30" s="126"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="88"/>
-      <c r="K52" s="88"/>
-      <c r="L52" s="88"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
-      <c r="J53" s="88"/>
-      <c r="K53" s="88"/>
-      <c r="L53" s="88"/>
-      <c r="M53" s="88"/>
-      <c r="N53" s="88"/>
-      <c r="O53" s="88"/>
-      <c r="P53" s="88"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
-      <c r="J54" s="88"/>
-      <c r="K54" s="88"/>
-      <c r="L54" s="88"/>
-      <c r="M54" s="88"/>
-      <c r="N54" s="88"/>
-      <c r="O54" s="88"/>
-      <c r="P54" s="88"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-      <c r="K55" s="88"/>
-      <c r="L55" s="88"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="88"/>
-      <c r="O55" s="88"/>
-      <c r="P55" s="88"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-      <c r="K56" s="88"/>
-      <c r="L56" s="88"/>
-      <c r="M56" s="88"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="88"/>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" s="88"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="88"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="88"/>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-      <c r="K58" s="88"/>
-      <c r="L58" s="88"/>
-      <c r="M58" s="88"/>
-      <c r="N58" s="88"/>
-      <c r="O58" s="88"/>
-      <c r="P58" s="88"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
-      <c r="L59" s="88"/>
-      <c r="M59" s="88"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="88"/>
-      <c r="P59" s="88"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="88"/>
-      <c r="G61" s="88"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-      <c r="L61" s="88"/>
-      <c r="M61" s="88"/>
-      <c r="N61" s="88"/>
-      <c r="O61" s="88"/>
-      <c r="P61" s="88"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="48"/>
-      <c r="P71" s="48"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="48"/>
-      <c r="P72" s="48"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="48"/>
-      <c r="P73" s="48"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="48"/>
-      <c r="P74" s="48"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="48"/>
-      <c r="P76" s="48"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="48"/>
-      <c r="P77" s="48"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="48"/>
-      <c r="P79" s="48"/>
+      <c r="O79" s="40"/>
+      <c r="P79" s="40"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
+      <c r="O80" s="40"/>
+      <c r="P80" s="40"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="48"/>
-      <c r="P81" s="48"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="48"/>
-      <c r="P82" s="48"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="48"/>
-      <c r="P83" s="48"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="48"/>
-      <c r="P84" s="48"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="48"/>
-      <c r="P85" s="48"/>
+      <c r="O85" s="40"/>
+      <c r="P85" s="40"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
+      <c r="O86" s="40"/>
+      <c r="P86" s="40"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="48"/>
-      <c r="P87" s="48"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
+      <c r="O90" s="40"/>
+      <c r="P90" s="40"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="48"/>
-      <c r="P91" s="48"/>
+      <c r="O91" s="40"/>
+      <c r="P91" s="40"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="48"/>
-      <c r="P92" s="48"/>
+      <c r="O92" s="40"/>
+      <c r="P92" s="40"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="48"/>
-      <c r="P94" s="48"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="40"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="48"/>
-      <c r="P95" s="48"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="48"/>
-      <c r="P96" s="48"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="48"/>
-      <c r="P97" s="48"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="48"/>
-      <c r="P98" s="48"/>
+      <c r="O98" s="40"/>
+      <c r="P98" s="40"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="48"/>
-      <c r="P99" s="48"/>
+      <c r="O99" s="40"/>
+      <c r="P99" s="40"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="48"/>
-      <c r="P100" s="48"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="48"/>
-      <c r="P101" s="48"/>
+      <c r="O101" s="40"/>
+      <c r="P101" s="40"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="48"/>
-      <c r="P102" s="48"/>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="48"/>
-      <c r="P103" s="48"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="48"/>
-      <c r="P104" s="48"/>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="48"/>
-      <c r="P105" s="48"/>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="48"/>
-      <c r="P106" s="48"/>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="48"/>
-      <c r="P107" s="48"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="48"/>
-      <c r="P108" s="48"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="48"/>
-      <c r="P109" s="48"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="48"/>
-      <c r="P110" s="48"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17433,8 +17678,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:NKE/explorer/revenue_proj" xr:uid="{9D99A02A-3E9D-1746-A937-C8680874A49A}"/>

--- a/Consumer/Nike.xlsx
+++ b/Consumer/Nike.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176EF46-2578-D544-86E3-A3B3CCF4F0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D87CFE6-524F-C34F-9CC5-CC86D45C8381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1747,12 +1747,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1770,7 +1772,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1783,6 +1785,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1910,11 +1914,11 @@
     <v>Powered by Refinitiv</v>
     <v>131.31</v>
     <v>88.66</v>
-    <v>1.0687</v>
-    <v>0.32</v>
-    <v>2.9729999999999999E-3</v>
-    <v>-0.01</v>
-    <v>-9.2629999999999999E-5</v>
+    <v>1.1311</v>
+    <v>1.0900000000000001</v>
+    <v>9.4940000000000007E-3</v>
+    <v>0.34</v>
+    <v>2.9329999999999998E-3</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
     <v>83700</v>
@@ -1922,25 +1926,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>108.22</v>
+    <v>116.29</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45258.041324166406</v>
+    <v>45269.038651967188</v>
     <v>0</v>
-    <v>106.9</v>
-    <v>164305403600</v>
+    <v>114.47</v>
+    <v>176389369000</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>107.66</v>
-    <v>33.305500000000002</v>
-    <v>107.64</v>
-    <v>107.96</v>
-    <v>107.95</v>
+    <v>114.5</v>
+    <v>35.418700000000001</v>
+    <v>114.81</v>
+    <v>115.9</v>
+    <v>116.25</v>
     <v>1521910000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>5785038</v>
-    <v>7546847</v>
+    <v>6122150</v>
+    <v>7431466</v>
     <v>1969</v>
   </rv>
   <rv s="2">
@@ -2105,9 +2109,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15879,7 +15883,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15928,7 +15932,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="49" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>164305403600</v>
+        <v>176389369000</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>201</v>
@@ -15956,14 +15960,14 @@
       </c>
       <c r="I3" s="54">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>146326625807.93481</v>
+        <v>138558148232.80453</v>
       </c>
       <c r="J3" s="55" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="56">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>9.3240999165775454E-3</v>
+        <v>8.6853306901959609E-3</v>
       </c>
       <c r="L3" s="57" t="s">
         <v>212</v>
@@ -16006,14 +16010,14 @@
       </c>
       <c r="I4" s="41">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>124387803880.95398</v>
+        <v>117549161557.18669</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="62" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.9729999999999999E-3</v>
+        <v>9.4940000000000007E-3</v>
       </c>
       <c r="L4" s="63" t="s">
         <v>251</v>
@@ -16056,14 +16060,14 @@
       </c>
       <c r="I5" s="41">
         <f>I4+G5-G6</f>
-        <v>121000803880.95398</v>
+        <v>114162161557.18669</v>
       </c>
       <c r="J5" s="60" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="65" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>107.96</v>
+        <v>115.9</v>
       </c>
       <c r="L5" s="66" t="s">
         <v>219</v>
@@ -16081,7 +16085,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="67">
         <f>O20/F10</f>
-        <v>3.0878670099605339</v>
+        <v>3.3149665288479611</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>221</v>
@@ -16109,14 +16113,14 @@
       </c>
       <c r="I6" s="62">
         <f>N25</f>
-        <v>8.0632732286775408E-2</v>
+        <v>8.3751867745246553E-2</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="68">
         <f>I5/G4</f>
-        <v>74.656618213740387</v>
+        <v>70.437225509803298</v>
       </c>
       <c r="L6" s="69" t="s">
         <v>225</v>
@@ -16134,14 +16138,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70">
         <f>O20/F12</f>
-        <v>28.911737392222417</v>
+        <v>31.038073024810839</v>
       </c>
       <c r="B7" s="71" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="72">
         <f>F15/A3</f>
-        <v>3.0157255278486776E-2</v>
+        <v>2.8091262121358346E-2</v>
       </c>
       <c r="D7" s="71" t="s">
         <v>228</v>
@@ -16168,7 +16172,7 @@
       </c>
       <c r="K7" s="78">
         <f>K6/K5-1</f>
-        <v>-0.3084788976126307</v>
+        <v>-0.39225862372904841</v>
       </c>
       <c r="L7" s="79" t="s">
         <v>231</v>
@@ -16481,7 +16485,7 @@
       </c>
       <c r="O14" s="109">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="40"/>
     </row>
@@ -16526,7 +16530,7 @@
       </c>
       <c r="O15" s="110" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0687</v>
+        <v>1.1311</v>
       </c>
       <c r="P15" s="40"/>
     </row>
@@ -16627,7 +16631,7 @@
       </c>
       <c r="O17" s="112">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.6690292000000002E-2</v>
+        <v>8.9609769000000006E-2</v>
       </c>
       <c r="P17" s="40"/>
     </row>
@@ -16703,7 +16707,7 @@
       </c>
       <c r="O20" s="113" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>164305403600</v>
+        <v>176389369000</v>
       </c>
       <c r="P20" s="40"/>
     </row>
@@ -16731,7 +16735,7 @@
       </c>
       <c r="O21" s="113">
         <f>O19+O20</f>
-        <v>176482403600</v>
+        <v>188566369000</v>
       </c>
       <c r="P21" s="40"/>
     </row>
@@ -16757,7 +16761,7 @@
       </c>
       <c r="O22" s="114">
         <f>(O19/O21)</f>
-        <v>6.8998380300844903E-2</v>
+        <v>6.4576732662227798E-2</v>
       </c>
       <c r="P22" s="40"/>
     </row>
@@ -16780,7 +16784,7 @@
       </c>
       <c r="O23" s="115">
         <f>O20/O21</f>
-        <v>0.93100161969915507</v>
+        <v>0.93542326733777215</v>
       </c>
       <c r="P23" s="40"/>
     </row>
@@ -16820,7 +16824,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="118">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.0632732286775408E-2</v>
+        <v>8.3751867745246553E-2</v>
       </c>
       <c r="O25" s="119"/>
       <c r="P25" s="40"/>
